--- a/values/tabelle-accessi.xlsx
+++ b/values/tabelle-accessi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="69">
   <si>
     <t xml:space="preserve">Registrare un operatore in un gruppo</t>
   </si>
@@ -190,7 +190,13 @@
     <t xml:space="preserve">Visualizzare gli operatori coinvolti in una spedizione</t>
   </si>
   <si>
-    <t xml:space="preserve">Totale: 18L</t>
+    <t xml:space="preserve">Appartenenza associazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale: 20L</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizzare le spedizioni in un luogo</t>
@@ -214,22 +220,13 @@
     <t xml:space="preserve">Visualizzare l’associazione che ha organizzato una spedizione</t>
   </si>
   <si>
-    <t xml:space="preserve">Appartenenza associazione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associazione</t>
-  </si>
-  <si>
     <t xml:space="preserve">Totale: 4L</t>
   </si>
   <si>
-    <t xml:space="preserve">Visualizzare le spedizioni a cui ha partecipato un operatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appartenenza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale: 152L</t>
+    <t xml:space="preserve">Visualizzare le spedizioni organizzate da un’associazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale: 1040L</t>
   </si>
 </sst>
 </file>
@@ -245,6 +242,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -266,17 +264,20 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -339,7 +340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,7 +364,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,24 +441,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J79" activeCellId="0" sqref="J79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F101" activeCellId="0" sqref="F101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,13 +1639,13 @@
     </row>
     <row r="81" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>11</v>
@@ -1652,317 +1653,345 @@
     </row>
     <row r="82" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="6" t="n">
+      <c r="B84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
+      <c r="D84" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="B103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="B104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+    <row r="109" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="6" t="n">
-        <v>300</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="D109" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="6" t="n">
-        <v>300</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="6" t="n">
-        <v>500</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-    </row>
-    <row r="106" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+      <c r="B112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -1993,15 +2022,15 @@
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A83:D83"/>
     <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A93:D93"/>
     <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A99:D99"/>
     <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A113:D113"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/values/tabelle-accessi.xlsx
+++ b/values/tabelle-accessi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="44">
   <si>
     <t xml:space="preserve">Concetto</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">Tipo</t>
   </si>
   <si>
-    <t xml:space="preserve">o1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Operatore</t>
   </si>
   <si>
@@ -55,18 +52,12 @@
     <t xml:space="preserve">Totale → 1S + 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">o2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROV</t>
   </si>
   <si>
     <t xml:space="preserve">Casa produttrice</t>
   </si>
   <si>
-    <t xml:space="preserve">o3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spedizione</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t xml:space="preserve">Totale → 4S + 3L</t>
   </si>
   <si>
-    <t xml:space="preserve">o4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avvenimento</t>
   </si>
   <si>
@@ -121,52 +109,34 @@
     <t xml:space="preserve">Totale → 3S + 1L</t>
   </si>
   <si>
-    <t xml:space="preserve">o5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Totale → 1S</t>
   </si>
   <si>
-    <t xml:space="preserve">o6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale organismo → 4185L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale Relitto → 3210L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale formazione geologica → 3205L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale → 3210L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o7</t>
+    <t xml:space="preserve">Totale organismo → 4.185L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale Relitto → 3.210L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale formazione geologica → 3.205L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale → 3.210L</t>
   </si>
   <si>
     <t xml:space="preserve">Appartenenza associazione</t>
   </si>
   <si>
-    <t xml:space="preserve">Totale → 410L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale →30L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale → 2710L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale → 12530L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Totale → 13010L</t>
+    <t xml:space="preserve">Totale → 1.806L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale →37L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale → 13.804L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale → 3.773L</t>
   </si>
   <si>
     <t xml:space="preserve">Analisi</t>
@@ -176,6 +146,12 @@
   </si>
   <si>
     <t xml:space="preserve">Totale → 302L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale → 20.000L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale → 82.000L</t>
   </si>
 </sst>
 </file>
@@ -403,10 +379,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F73" activeCellId="0" sqref="F73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="18.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,8 +391,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="15.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="15.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,41 +408,38 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -490,41 +463,38 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -548,111 +518,108 @@
       <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -663,7 +630,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -676,41 +643,38 @@
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -718,21 +682,21 @@
     </row>
     <row r="25" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -740,37 +704,37 @@
     </row>
     <row r="27" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -778,18 +742,18 @@
     </row>
     <row r="31" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,34 +766,30 @@
       <c r="D33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -837,9 +797,8 @@
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -847,9 +806,8 @@
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -862,140 +820,134 @@
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F37" s="0"/>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C38" s="7" t="n">
         <v>100</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
       <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="7" t="n">
         <v>100</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
       <c r="H39" s="0"/>
-      <c r="I39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C40" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C42" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>985</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1003,7 +955,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1011,14 +963,14 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -1031,109 +983,106 @@
       <c r="D50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C51" s="7" t="n">
         <v>100</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="7" t="n">
         <v>100</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C53" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C55" s="7" t="n">
         <v>1000</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
       <c r="B58" s="0"/>
       <c r="C58" s="11"/>
       <c r="D58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
@@ -1146,76 +1095,72 @@
       <c r="D59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B62" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C62" s="7" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" s="7" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>0</v>
       </c>
@@ -1228,75 +1173,71 @@
       <c r="D66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C67" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C69" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="7" t="n">
         <v>7</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>0</v>
@@ -1310,118 +1251,115 @@
       <c r="D73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C75" s="7" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" s="7" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C77" s="7" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="7" t="n">
-        <v>500</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="B80" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="7" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -1435,325 +1373,363 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C84" s="7" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="7" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="7" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="7" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+      <c r="D99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="7" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="B101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="104" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="B104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
+    <row r="105" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="7" t="n">
+      <c r="B105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="7" t="n">
         <v>2000</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0"/>
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0"/>
-      <c r="B109" s="0"/>
-      <c r="C109" s="0"/>
-      <c r="D109" s="0"/>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0"/>
-      <c r="B110" s="0"/>
-      <c r="C110" s="0"/>
-      <c r="D110" s="0"/>
-    </row>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D109" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0"/>
+      <c r="B111" s="0"/>
+      <c r="C111" s="0"/>
+      <c r="D111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0"/>
+      <c r="B112" s="0"/>
+      <c r="C112" s="0"/>
+      <c r="D112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0"/>
+      <c r="B113" s="0"/>
+      <c r="C113" s="0"/>
+      <c r="D113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0"/>
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
+      <c r="D114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0"/>
+      <c r="B115" s="0"/>
+      <c r="C115" s="0"/>
+      <c r="D115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0"/>
+      <c r="B116" s="0"/>
+      <c r="C116" s="0"/>
+      <c r="D116" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A19:D19"/>
@@ -1775,9 +1751,10 @@
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A110:D110"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
